--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3152,28 +3152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3664.248409695207</v>
+        <v>3854.011908995252</v>
       </c>
       <c r="AB2" t="n">
-        <v>5013.586329376051</v>
+        <v>5273.229120893126</v>
       </c>
       <c r="AC2" t="n">
-        <v>4535.096686712819</v>
+        <v>4769.959534618441</v>
       </c>
       <c r="AD2" t="n">
-        <v>3664248.409695207</v>
+        <v>3854011.908995252</v>
       </c>
       <c r="AE2" t="n">
-        <v>5013586.329376051</v>
+        <v>5273229.120893126</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.02112572697959e-07</v>
+        <v>1.012210710834195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.28450520833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4535096.686712819</v>
+        <v>4769959.534618441</v>
       </c>
     </row>
     <row r="3">
@@ -3258,28 +3258,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1738.188075611421</v>
+        <v>1858.884632547597</v>
       </c>
       <c r="AB3" t="n">
-        <v>2378.265608497396</v>
+        <v>2543.407962453763</v>
       </c>
       <c r="AC3" t="n">
-        <v>2151.28727673915</v>
+        <v>2300.66867621267</v>
       </c>
       <c r="AD3" t="n">
-        <v>1738188.075611421</v>
+        <v>1858884.632547597</v>
       </c>
       <c r="AE3" t="n">
-        <v>2378265.608497396</v>
+        <v>2543407.962453763</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.109748675410631e-06</v>
+        <v>1.599885174065857e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.38606770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2151287.276739149</v>
+        <v>2300668.67621267</v>
       </c>
     </row>
     <row r="4">
@@ -3364,28 +3364,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1393.210038607286</v>
+        <v>1505.273138239428</v>
       </c>
       <c r="AB4" t="n">
-        <v>1906.251438911474</v>
+        <v>2059.581115703206</v>
       </c>
       <c r="AC4" t="n">
-        <v>1724.32147702246</v>
+        <v>1863.017584660742</v>
       </c>
       <c r="AD4" t="n">
-        <v>1393210.038607286</v>
+        <v>1505273.138239428</v>
       </c>
       <c r="AE4" t="n">
-        <v>1906251.438911474</v>
+        <v>2059581.115703206</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.268004102368482e-06</v>
+        <v>1.828036391467979e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.96809895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1724321.47702246</v>
+        <v>1863017.584660742</v>
       </c>
     </row>
     <row r="5">
@@ -3470,28 +3470,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1247.773560245206</v>
+        <v>1351.118040735844</v>
       </c>
       <c r="AB5" t="n">
-        <v>1707.258833011885</v>
+        <v>1848.65931045588</v>
       </c>
       <c r="AC5" t="n">
-        <v>1544.320446142052</v>
+        <v>1672.225860475608</v>
       </c>
       <c r="AD5" t="n">
-        <v>1247773.560245206</v>
+        <v>1351118.040735844</v>
       </c>
       <c r="AE5" t="n">
-        <v>1707258.833011885</v>
+        <v>1848659.31045588</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.352593728813209e-06</v>
+        <v>1.949986245725396e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.470703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1544320.446142052</v>
+        <v>1672225.860475608</v>
       </c>
     </row>
     <row r="6">
@@ -3576,28 +3576,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1155.862295801596</v>
+        <v>1250.829341551915</v>
       </c>
       <c r="AB6" t="n">
-        <v>1581.501786161327</v>
+        <v>1711.43988780728</v>
       </c>
       <c r="AC6" t="n">
-        <v>1430.565475341787</v>
+        <v>1548.102466935921</v>
       </c>
       <c r="AD6" t="n">
-        <v>1155862.295801596</v>
+        <v>1250829.341551915</v>
       </c>
       <c r="AE6" t="n">
-        <v>1581501.786161327</v>
+        <v>1711439.88780728</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.40562563589997e-06</v>
+        <v>2.026440458990532e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.62434895833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1430565.475341787</v>
+        <v>1548102.466935921</v>
       </c>
     </row>
     <row r="7">
@@ -3682,28 +3682,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1093.261531539684</v>
+        <v>1179.595299003069</v>
       </c>
       <c r="AB7" t="n">
-        <v>1495.848658747373</v>
+        <v>1613.974328167788</v>
       </c>
       <c r="AC7" t="n">
-        <v>1353.086962193301</v>
+        <v>1459.93888351465</v>
       </c>
       <c r="AD7" t="n">
-        <v>1093261.531539683</v>
+        <v>1179595.299003069</v>
       </c>
       <c r="AE7" t="n">
-        <v>1495848.658747373</v>
+        <v>1613974.328167788</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.442131755038919e-06</v>
+        <v>2.079070031854385e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.07421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1353086.962193301</v>
+        <v>1459938.88351465</v>
       </c>
     </row>
     <row r="8">
@@ -3788,28 +3788,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1032.897213402503</v>
+        <v>1127.77891829825</v>
       </c>
       <c r="AB8" t="n">
-        <v>1413.255535586318</v>
+        <v>1543.076870110074</v>
       </c>
       <c r="AC8" t="n">
-        <v>1278.376410786561</v>
+        <v>1395.807779348757</v>
       </c>
       <c r="AD8" t="n">
-        <v>1032897.213402503</v>
+        <v>1127778.91829825</v>
       </c>
       <c r="AE8" t="n">
-        <v>1413255.535586318</v>
+        <v>1543076.870110074</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.469674734951938e-06</v>
+        <v>2.118777765856524e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.68033854166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1278376.410786561</v>
+        <v>1395807.779348757</v>
       </c>
     </row>
     <row r="9">
@@ -3894,28 +3894,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>991.0851267301688</v>
+        <v>1077.333553338983</v>
       </c>
       <c r="AB9" t="n">
-        <v>1356.046393982153</v>
+        <v>1474.05529628037</v>
       </c>
       <c r="AC9" t="n">
-        <v>1226.627229363562</v>
+        <v>1333.373527652973</v>
       </c>
       <c r="AD9" t="n">
-        <v>991085.1267301688</v>
+        <v>1077333.553338983</v>
       </c>
       <c r="AE9" t="n">
-        <v>1356046.393982153</v>
+        <v>1474055.29628037</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.48974843217668e-06</v>
+        <v>2.147717300807235e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.400390625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1226627.229363563</v>
+        <v>1333373.527652973</v>
       </c>
     </row>
     <row r="10">
@@ -4000,28 +4000,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>987.0823277747232</v>
+        <v>1073.330754383537</v>
       </c>
       <c r="AB10" t="n">
-        <v>1350.569587860285</v>
+        <v>1468.578490158503</v>
       </c>
       <c r="AC10" t="n">
-        <v>1221.673121931221</v>
+        <v>1328.419420220631</v>
       </c>
       <c r="AD10" t="n">
-        <v>987082.3277747233</v>
+        <v>1073330.754383537</v>
       </c>
       <c r="AE10" t="n">
-        <v>1350569.587860285</v>
+        <v>1468578.490158502</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.492082583016766e-06</v>
+        <v>2.151082363010807e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.36783854166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1221673.121931221</v>
+        <v>1328419.420220631</v>
       </c>
     </row>
     <row r="11">
@@ -4106,28 +4106,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>990.2889317355921</v>
+        <v>1076.537358344406</v>
       </c>
       <c r="AB11" t="n">
-        <v>1354.957004864929</v>
+        <v>1472.965907163146</v>
       </c>
       <c r="AC11" t="n">
-        <v>1225.641810014719</v>
+        <v>1332.388108304129</v>
       </c>
       <c r="AD11" t="n">
-        <v>990288.9317355921</v>
+        <v>1076537.358344406</v>
       </c>
       <c r="AE11" t="n">
-        <v>1354957.004864929</v>
+        <v>1472965.907163146</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.492269315083973e-06</v>
+        <v>2.151351567987093e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.36783854166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1225641.810014719</v>
+        <v>1332388.108304129</v>
       </c>
     </row>
   </sheetData>
@@ -4403,28 +4403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2538.649115453033</v>
+        <v>2698.324229942927</v>
       </c>
       <c r="AB2" t="n">
-        <v>3473.49171705764</v>
+        <v>3691.96625307161</v>
       </c>
       <c r="AC2" t="n">
-        <v>3141.986542657771</v>
+        <v>3339.610175585496</v>
       </c>
       <c r="AD2" t="n">
-        <v>2538649.115453033</v>
+        <v>2698324.229942927</v>
       </c>
       <c r="AE2" t="n">
-        <v>3473491.71705764</v>
+        <v>3691966.25307161</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.635741339799341e-07</v>
+        <v>1.264240045391983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3141986.542657771</v>
+        <v>3339610.175585496</v>
       </c>
     </row>
     <row r="3">
@@ -4509,28 +4509,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1392.589350551197</v>
+        <v>1501.845264565644</v>
       </c>
       <c r="AB3" t="n">
-        <v>1905.402186130309</v>
+        <v>2054.890947715621</v>
       </c>
       <c r="AC3" t="n">
-        <v>1723.553275734796</v>
+        <v>1858.775039723201</v>
       </c>
       <c r="AD3" t="n">
-        <v>1392589.350551197</v>
+        <v>1501845.264565644</v>
       </c>
       <c r="AE3" t="n">
-        <v>1905402.186130309</v>
+        <v>2054890.947715621</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.243156546074905e-06</v>
+        <v>1.819934417206152e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.28971354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1723553.275734796</v>
+        <v>1858775.039723201</v>
       </c>
     </row>
     <row r="4">
@@ -4615,28 +4615,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1149.233955320135</v>
+        <v>1250.1576971256</v>
       </c>
       <c r="AB4" t="n">
-        <v>1572.432598292847</v>
+        <v>1710.520914272335</v>
       </c>
       <c r="AC4" t="n">
-        <v>1422.36183803479</v>
+        <v>1547.271198945364</v>
       </c>
       <c r="AD4" t="n">
-        <v>1149233.955320135</v>
+        <v>1250157.6971256</v>
       </c>
       <c r="AE4" t="n">
-        <v>1572432.598292847</v>
+        <v>1710520.914272335</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.385137753652414e-06</v>
+        <v>2.027789563915269e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.69856770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1422361.83803479</v>
+        <v>1547271.198945364</v>
       </c>
     </row>
     <row r="5">
@@ -4721,28 +4721,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1030.582222126396</v>
+        <v>1123.173881231429</v>
       </c>
       <c r="AB5" t="n">
-        <v>1410.088062392141</v>
+        <v>1536.776055235352</v>
       </c>
       <c r="AC5" t="n">
-        <v>1275.51123678846</v>
+        <v>1390.10830540243</v>
       </c>
       <c r="AD5" t="n">
-        <v>1030582.222126396</v>
+        <v>1123173.881231429</v>
       </c>
       <c r="AE5" t="n">
-        <v>1410088.062392141</v>
+        <v>1536776.055235352</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.462213266337347e-06</v>
+        <v>2.140625214985933e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.50065104166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1275511.23678846</v>
+        <v>1390108.30540243</v>
       </c>
     </row>
     <row r="6">
@@ -4827,28 +4827,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>951.2734808272162</v>
+        <v>1043.779799077678</v>
       </c>
       <c r="AB6" t="n">
-        <v>1301.574343691874</v>
+        <v>1428.145569412888</v>
       </c>
       <c r="AC6" t="n">
-        <v>1177.353915100985</v>
+        <v>1291.845360683017</v>
       </c>
       <c r="AD6" t="n">
-        <v>951273.4808272162</v>
+        <v>1043779.799077678</v>
       </c>
       <c r="AE6" t="n">
-        <v>1301574.343691874</v>
+        <v>1428145.569412888</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.507705204275447e-06</v>
+        <v>2.207223700768242e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.85286458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1177353.915100985</v>
+        <v>1291845.360683017</v>
       </c>
     </row>
     <row r="7">
@@ -4933,28 +4933,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>904.1360531266962</v>
+        <v>996.4717791765656</v>
       </c>
       <c r="AB7" t="n">
-        <v>1237.07883555548</v>
+        <v>1363.416649501647</v>
       </c>
       <c r="AC7" t="n">
-        <v>1119.013767741115</v>
+        <v>1233.294078040495</v>
       </c>
       <c r="AD7" t="n">
-        <v>904136.0531266961</v>
+        <v>996471.7791765656</v>
       </c>
       <c r="AE7" t="n">
-        <v>1237078.83555548</v>
+        <v>1363416.649501647</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.534169728681051e-06</v>
+        <v>2.24596676893035e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.49479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1119013.767741115</v>
+        <v>1233294.078040495</v>
       </c>
     </row>
     <row r="8">
@@ -5039,28 +5039,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>907.2486293260772</v>
+        <v>999.5843553759468</v>
       </c>
       <c r="AB8" t="n">
-        <v>1241.337599628643</v>
+        <v>1367.67541357481</v>
       </c>
       <c r="AC8" t="n">
-        <v>1122.866081348348</v>
+        <v>1237.146391647729</v>
       </c>
       <c r="AD8" t="n">
-        <v>907248.6293260772</v>
+        <v>999584.3553759467</v>
       </c>
       <c r="AE8" t="n">
-        <v>1241337.599628643</v>
+        <v>1367675.41357481</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.535715102368969e-06</v>
+        <v>2.248229137874122e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.47200520833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1122866.081348348</v>
+        <v>1237146.391647729</v>
       </c>
     </row>
   </sheetData>
@@ -5336,28 +5336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000.559345138204</v>
+        <v>1101.363506482729</v>
       </c>
       <c r="AB2" t="n">
-        <v>1369.009437581043</v>
+        <v>1506.934138298356</v>
       </c>
       <c r="AC2" t="n">
-        <v>1238.353098275121</v>
+        <v>1363.114459134507</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000559.345138203</v>
+        <v>1101363.506482729</v>
       </c>
       <c r="AE2" t="n">
-        <v>1369009.437581043</v>
+        <v>1506934.138298356</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.386427175079941e-06</v>
+        <v>2.14497397059643e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.30598958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1238353.098275121</v>
+        <v>1363114.459134507</v>
       </c>
     </row>
     <row r="3">
@@ -5442,28 +5442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>724.5944420089143</v>
+        <v>810.0346180855528</v>
       </c>
       <c r="AB3" t="n">
-        <v>991.4220824072718</v>
+        <v>1108.325100669869</v>
       </c>
       <c r="AC3" t="n">
-        <v>896.8021503319529</v>
+        <v>1002.548108605985</v>
       </c>
       <c r="AD3" t="n">
-        <v>724594.4420089143</v>
+        <v>810034.6180855528</v>
       </c>
       <c r="AE3" t="n">
-        <v>991422.0824072717</v>
+        <v>1108325.100669869</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.625581551751458e-06</v>
+        <v>2.514975310829132e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.58203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>896802.150331953</v>
+        <v>1002548.108605985</v>
       </c>
     </row>
     <row r="4">
@@ -5548,28 +5548,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>728.9401559407812</v>
+        <v>814.3803320174196</v>
       </c>
       <c r="AB4" t="n">
-        <v>997.3680799282196</v>
+        <v>1114.271098190817</v>
       </c>
       <c r="AC4" t="n">
-        <v>902.1806701947617</v>
+        <v>1007.926628468793</v>
       </c>
       <c r="AD4" t="n">
-        <v>728940.1559407812</v>
+        <v>814380.3320174196</v>
       </c>
       <c r="AE4" t="n">
-        <v>997368.0799282196</v>
+        <v>1114271.098190817</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.62644375770611e-06</v>
+        <v>2.516309249865573e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.56901041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>902180.6701947617</v>
+        <v>1007926.628468793</v>
       </c>
     </row>
   </sheetData>
@@ -5845,28 +5845,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1424.293946931227</v>
+        <v>1544.530588752824</v>
       </c>
       <c r="AB2" t="n">
-        <v>1948.781813605542</v>
+        <v>2113.294891412118</v>
       </c>
       <c r="AC2" t="n">
-        <v>1762.792812447482</v>
+        <v>1911.604993003753</v>
       </c>
       <c r="AD2" t="n">
-        <v>1424293.946931227</v>
+        <v>1544530.588752824</v>
       </c>
       <c r="AE2" t="n">
-        <v>1948781.813605542</v>
+        <v>2113294.891412118</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.172929699448773e-06</v>
+        <v>1.772641580180403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.61328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1762792.812447482</v>
+        <v>1911604.993003753</v>
       </c>
     </row>
     <row r="3">
@@ -5951,28 +5951,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>925.2727448895464</v>
+        <v>1021.274397975318</v>
       </c>
       <c r="AB3" t="n">
-        <v>1265.998989710441</v>
+        <v>1397.352686756415</v>
       </c>
       <c r="AC3" t="n">
-        <v>1145.173822973217</v>
+        <v>1263.991307529195</v>
       </c>
       <c r="AD3" t="n">
-        <v>925272.7448895464</v>
+        <v>1021274.397975318</v>
       </c>
       <c r="AE3" t="n">
-        <v>1265998.989710441</v>
+        <v>1397352.686756415</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.492454061139327e-06</v>
+        <v>2.255536820772796e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.490234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1145173.822973217</v>
+        <v>1263991.307529195</v>
       </c>
     </row>
     <row r="4">
@@ -6057,28 +6057,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>793.3425842807827</v>
+        <v>873.5573289067797</v>
       </c>
       <c r="AB4" t="n">
-        <v>1085.486323617624</v>
+        <v>1195.239676039688</v>
       </c>
       <c r="AC4" t="n">
-        <v>981.8890323811808</v>
+        <v>1081.167678887881</v>
       </c>
       <c r="AD4" t="n">
-        <v>793342.5842807827</v>
+        <v>873557.3289067798</v>
       </c>
       <c r="AE4" t="n">
-        <v>1085486.323617624</v>
+        <v>1195239.676039688</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.596900069010425e-06</v>
+        <v>2.413385442495963e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>981889.0323811808</v>
+        <v>1081167.678887881</v>
       </c>
     </row>
     <row r="5">
@@ -6163,28 +6163,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>785.7159676306834</v>
+        <v>873.8667474053024</v>
       </c>
       <c r="AB5" t="n">
-        <v>1075.051250254378</v>
+        <v>1195.663036079947</v>
       </c>
       <c r="AC5" t="n">
-        <v>972.4498677740055</v>
+        <v>1081.550634040087</v>
       </c>
       <c r="AD5" t="n">
-        <v>785715.9676306834</v>
+        <v>873866.7474053024</v>
       </c>
       <c r="AE5" t="n">
-        <v>1075051.250254378</v>
+        <v>1195663.036079947</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.600714977491403e-06</v>
+        <v>2.419150890673414e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.966796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>972449.8677740055</v>
+        <v>1081550.634040087</v>
       </c>
     </row>
   </sheetData>
@@ -6460,28 +6460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>734.642381098867</v>
+        <v>825.1775285439686</v>
       </c>
       <c r="AB2" t="n">
-        <v>1005.170115953932</v>
+        <v>1129.044298817134</v>
       </c>
       <c r="AC2" t="n">
-        <v>909.2380908524062</v>
+        <v>1021.289895561652</v>
       </c>
       <c r="AD2" t="n">
-        <v>734642.3810988669</v>
+        <v>825177.5285439686</v>
       </c>
       <c r="AE2" t="n">
-        <v>1005170.115953932</v>
+        <v>1129044.298817134</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.572675215037554e-06</v>
+        <v>2.485594290076212e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.17057291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>909238.0908524062</v>
+        <v>1021289.895561652</v>
       </c>
     </row>
     <row r="3">
@@ -6566,28 +6566,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>688.8197096857509</v>
+        <v>771.8813863482829</v>
       </c>
       <c r="AB3" t="n">
-        <v>942.4735153729181</v>
+        <v>1056.122165805147</v>
       </c>
       <c r="AC3" t="n">
-        <v>852.5251658356126</v>
+        <v>955.3273485774723</v>
       </c>
       <c r="AD3" t="n">
-        <v>688819.7096857509</v>
+        <v>771881.3863482829</v>
       </c>
       <c r="AE3" t="n">
-        <v>942473.5153729181</v>
+        <v>1056122.165805147</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.623941069022408e-06</v>
+        <v>2.566619356613928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.43815104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>852525.1658356126</v>
+        <v>955327.3485774723</v>
       </c>
     </row>
   </sheetData>
@@ -6863,28 +6863,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2790.301862812446</v>
+        <v>2951.226081862791</v>
       </c>
       <c r="AB2" t="n">
-        <v>3817.814108130471</v>
+        <v>4037.997724110655</v>
       </c>
       <c r="AC2" t="n">
-        <v>3453.44728798611</v>
+        <v>3652.616888686783</v>
       </c>
       <c r="AD2" t="n">
-        <v>2790301.862812445</v>
+        <v>2951226.081862791</v>
       </c>
       <c r="AE2" t="n">
-        <v>3817814.108130471</v>
+        <v>4037997.724110655</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.198266543819183e-07</v>
+        <v>1.195214038705111e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.00455729166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3453447.287986109</v>
+        <v>3652616.888686783</v>
       </c>
     </row>
     <row r="3">
@@ -6969,28 +6969,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1471.500316394893</v>
+        <v>1589.968191819915</v>
       </c>
       <c r="AB3" t="n">
-        <v>2013.371650903769</v>
+        <v>2175.464624494084</v>
       </c>
       <c r="AC3" t="n">
-        <v>1821.218286326373</v>
+        <v>1967.841334016145</v>
       </c>
       <c r="AD3" t="n">
-        <v>1471500.316394893</v>
+        <v>1589968.191819915</v>
       </c>
       <c r="AE3" t="n">
-        <v>2013371.65090377</v>
+        <v>2175464.624494084</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.207581210937803e-06</v>
+        <v>1.760516090169723e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.80078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1821218.286326373</v>
+        <v>1967841.334016145</v>
       </c>
     </row>
     <row r="4">
@@ -7075,28 +7075,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1215.322849354335</v>
+        <v>1308.53894803973</v>
       </c>
       <c r="AB4" t="n">
-        <v>1662.85833874667</v>
+        <v>1790.400717372062</v>
       </c>
       <c r="AC4" t="n">
-        <v>1504.157472733023</v>
+        <v>1619.52738574926</v>
       </c>
       <c r="AD4" t="n">
-        <v>1215322.849354335</v>
+        <v>1308538.94803973</v>
       </c>
       <c r="AE4" t="n">
-        <v>1662858.33874667</v>
+        <v>1790400.717372062</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.354030105415834e-06</v>
+        <v>1.97402192545505e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.01106770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1504157.472733023</v>
+        <v>1619527.38574926</v>
       </c>
     </row>
     <row r="5">
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1085.070398529907</v>
+        <v>1178.286407706751</v>
       </c>
       <c r="AB5" t="n">
-        <v>1484.641189196113</v>
+        <v>1612.183445351957</v>
       </c>
       <c r="AC5" t="n">
-        <v>1342.949117806232</v>
+        <v>1458.318920041242</v>
       </c>
       <c r="AD5" t="n">
-        <v>1085070.398529907</v>
+        <v>1178286.407706751</v>
       </c>
       <c r="AE5" t="n">
-        <v>1484641.189196113</v>
+        <v>1612183.445351957</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.432519055397523e-06</v>
+        <v>2.088449889464179e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.75130208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1342949.117806232</v>
+        <v>1458318.920041242</v>
       </c>
     </row>
     <row r="6">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1008.658076861869</v>
+        <v>1093.399992894824</v>
       </c>
       <c r="AB6" t="n">
-        <v>1380.09047961619</v>
+        <v>1496.03810768196</v>
       </c>
       <c r="AC6" t="n">
-        <v>1248.376581210774</v>
+        <v>1353.258330387464</v>
       </c>
       <c r="AD6" t="n">
-        <v>1008658.076861869</v>
+        <v>1093399.992894824</v>
       </c>
       <c r="AE6" t="n">
-        <v>1380090.47961619</v>
+        <v>1496038.10768196</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.481909662946977e-06</v>
+        <v>2.160455779011387e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.025390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1248376.581210774</v>
+        <v>1353258.330387464</v>
       </c>
     </row>
     <row r="7">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>940.5424764059246</v>
+        <v>1033.673144728197</v>
       </c>
       <c r="AB7" t="n">
-        <v>1286.89171002416</v>
+        <v>1414.317199057806</v>
       </c>
       <c r="AC7" t="n">
-        <v>1164.072571383312</v>
+        <v>1279.336750586384</v>
       </c>
       <c r="AD7" t="n">
-        <v>940542.4764059247</v>
+        <v>1033673.144728197</v>
       </c>
       <c r="AE7" t="n">
-        <v>1286891.71002416</v>
+        <v>1414317.199057806</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.515602480500093e-06</v>
+        <v>2.209576075756769e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.556640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1164072.571383312</v>
+        <v>1279336.750586384</v>
       </c>
     </row>
     <row r="8">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>921.3961862187637</v>
+        <v>1006.052761397146</v>
       </c>
       <c r="AB8" t="n">
-        <v>1260.694911115377</v>
+        <v>1376.52577205895</v>
       </c>
       <c r="AC8" t="n">
-        <v>1140.375958194946</v>
+        <v>1245.152084339698</v>
       </c>
       <c r="AD8" t="n">
-        <v>921396.1862187637</v>
+        <v>1006052.761397146</v>
       </c>
       <c r="AE8" t="n">
-        <v>1260694.911115377</v>
+        <v>1376525.77205895</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.525078585436906e-06</v>
+        <v>2.223391159216408e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.4296875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1140375.958194946</v>
+        <v>1245152.084339698</v>
       </c>
     </row>
     <row r="9">
@@ -7605,28 +7605,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>925.213037218937</v>
+        <v>1009.86961239732</v>
       </c>
       <c r="AB9" t="n">
-        <v>1265.917295041396</v>
+        <v>1381.748155984968</v>
       </c>
       <c r="AC9" t="n">
-        <v>1145.099925128727</v>
+        <v>1249.876051273479</v>
       </c>
       <c r="AD9" t="n">
-        <v>925213.037218937</v>
+        <v>1009869.61239732</v>
       </c>
       <c r="AE9" t="n">
-        <v>1265917.295041396</v>
+        <v>1381748.155984968</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.525078585436906e-06</v>
+        <v>2.223391159216408e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.4296875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1145099.925128727</v>
+        <v>1249876.051273479</v>
       </c>
     </row>
   </sheetData>
@@ -7902,28 +7902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>668.2626794969526</v>
+        <v>757.316431068886</v>
       </c>
       <c r="AB2" t="n">
-        <v>914.3464797564388</v>
+        <v>1036.193751431398</v>
       </c>
       <c r="AC2" t="n">
-        <v>827.0825350218279</v>
+        <v>937.300874101849</v>
       </c>
       <c r="AD2" t="n">
-        <v>668262.6794969526</v>
+        <v>757316.431068886</v>
       </c>
       <c r="AE2" t="n">
-        <v>914346.4797564389</v>
+        <v>1036193.751431398</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.606583418898069e-06</v>
+        <v>2.574124019789274e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.20963541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>827082.5350218279</v>
+        <v>937300.874101849</v>
       </c>
     </row>
     <row r="3">
@@ -8008,28 +8008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>673.7577369966206</v>
+        <v>762.811488568554</v>
       </c>
       <c r="AB3" t="n">
-        <v>921.8650598523121</v>
+        <v>1043.712331527272</v>
       </c>
       <c r="AC3" t="n">
-        <v>833.8835523857443</v>
+        <v>944.1018914657654</v>
       </c>
       <c r="AD3" t="n">
-        <v>673757.7369966205</v>
+        <v>762811.4885685539</v>
       </c>
       <c r="AE3" t="n">
-        <v>921865.0598523121</v>
+        <v>1043712.331527272</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.607499830117405e-06</v>
+        <v>2.575592325825517e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.19661458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>833883.5523857443</v>
+        <v>944101.8914657654</v>
       </c>
     </row>
   </sheetData>
@@ -8305,28 +8305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1925.055155854642</v>
+        <v>2056.701309660189</v>
       </c>
       <c r="AB2" t="n">
-        <v>2633.94539167992</v>
+        <v>2814.069467135078</v>
       </c>
       <c r="AC2" t="n">
-        <v>2382.565340263563</v>
+        <v>2545.498626763008</v>
       </c>
       <c r="AD2" t="n">
-        <v>1925055.155854642</v>
+        <v>2056701.309660188</v>
       </c>
       <c r="AE2" t="n">
-        <v>2633945.39167992</v>
+        <v>2814069.467135078</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.004786400330057e-06</v>
+        <v>1.491950251098295e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.23958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2382565.340263563</v>
+        <v>2545498.626763009</v>
       </c>
     </row>
     <row r="3">
@@ -8411,28 +8411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1151.622717352464</v>
+        <v>1258.483802328968</v>
       </c>
       <c r="AB3" t="n">
-        <v>1575.701007890223</v>
+        <v>1721.913058733421</v>
       </c>
       <c r="AC3" t="n">
-        <v>1425.318315207433</v>
+        <v>1557.576093128059</v>
       </c>
       <c r="AD3" t="n">
-        <v>1151622.717352464</v>
+        <v>1258483.802328968</v>
       </c>
       <c r="AE3" t="n">
-        <v>1575701.007890223</v>
+        <v>1721913.058733421</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.357362236357529e-06</v>
+        <v>2.015470082695924e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.86393229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1425318.315207433</v>
+        <v>1557576.093128059</v>
       </c>
     </row>
     <row r="4">
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>965.0176732990674</v>
+        <v>1063.645545453599</v>
       </c>
       <c r="AB4" t="n">
-        <v>1320.379754182838</v>
+        <v>1455.326760019299</v>
       </c>
       <c r="AC4" t="n">
-        <v>1194.364563608252</v>
+        <v>1316.432416606993</v>
       </c>
       <c r="AD4" t="n">
-        <v>965017.6732990674</v>
+        <v>1063645.545453599</v>
       </c>
       <c r="AE4" t="n">
-        <v>1320379.754182838</v>
+        <v>1455326.760019299</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.487227171727513e-06</v>
+        <v>2.208299148525703e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.78059895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1194364.563608252</v>
+        <v>1316432.416606992</v>
       </c>
     </row>
     <row r="5">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>862.7948839143198</v>
+        <v>953.2748841014503</v>
       </c>
       <c r="AB5" t="n">
-        <v>1180.514023995441</v>
+        <v>1304.312751947362</v>
       </c>
       <c r="AC5" t="n">
-        <v>1067.847422407155</v>
+        <v>1179.830973515949</v>
       </c>
       <c r="AD5" t="n">
-        <v>862794.8839143198</v>
+        <v>953274.8841014503</v>
       </c>
       <c r="AE5" t="n">
-        <v>1180514.023995441</v>
+        <v>1304312.751947362</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.555294310266263e-06</v>
+        <v>2.309368176133035e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.82682291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1067847.422407155</v>
+        <v>1179830.973515949</v>
       </c>
     </row>
     <row r="6">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>845.838428026635</v>
+        <v>936.3184282137654</v>
       </c>
       <c r="AB6" t="n">
-        <v>1157.313452983873</v>
+        <v>1281.112180935793</v>
       </c>
       <c r="AC6" t="n">
-        <v>1046.861081330725</v>
+        <v>1158.84463243952</v>
       </c>
       <c r="AD6" t="n">
-        <v>845838.4280266351</v>
+        <v>936318.4282137654</v>
       </c>
       <c r="AE6" t="n">
-        <v>1157313.452983873</v>
+        <v>1281112.180935793</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.567434940239549e-06</v>
+        <v>2.327395107957735e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.66731770833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1046861.081330725</v>
+        <v>1158844.63243952</v>
       </c>
     </row>
   </sheetData>
@@ -9026,28 +9026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2312.834893213618</v>
+        <v>2463.202662548686</v>
       </c>
       <c r="AB2" t="n">
-        <v>3164.522735969267</v>
+        <v>3370.262551731316</v>
       </c>
       <c r="AC2" t="n">
-        <v>2862.505127483796</v>
+        <v>3048.609423987152</v>
       </c>
       <c r="AD2" t="n">
-        <v>2312834.893213618</v>
+        <v>2463202.662548686</v>
       </c>
       <c r="AE2" t="n">
-        <v>3164522.735969267</v>
+        <v>3370262.551731316</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.083404377308065e-07</v>
+        <v>1.335662365161865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.94140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2862505.127483795</v>
+        <v>3048609.423987152</v>
       </c>
     </row>
     <row r="3">
@@ -9132,28 +9132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1308.582459934373</v>
+        <v>1417.157698661208</v>
       </c>
       <c r="AB3" t="n">
-        <v>1790.460252265921</v>
+        <v>1939.017683893449</v>
       </c>
       <c r="AC3" t="n">
-        <v>1619.581238716407</v>
+        <v>1753.960557571068</v>
       </c>
       <c r="AD3" t="n">
-        <v>1308582.459934372</v>
+        <v>1417157.698661208</v>
       </c>
       <c r="AE3" t="n">
-        <v>1790460.252265921</v>
+        <v>1939017.683893448</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.279047859827471e-06</v>
+        <v>1.880766305946044e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.814453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1619581.238716407</v>
+        <v>1753960.557571068</v>
       </c>
     </row>
     <row r="4">
@@ -9238,28 +9238,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1090.002540986083</v>
+        <v>1181.860856978175</v>
       </c>
       <c r="AB4" t="n">
-        <v>1491.38956409542</v>
+        <v>1617.074164538692</v>
       </c>
       <c r="AC4" t="n">
-        <v>1349.053437276552</v>
+        <v>1462.742875852963</v>
       </c>
       <c r="AD4" t="n">
-        <v>1090002.540986083</v>
+        <v>1181860.856978175</v>
       </c>
       <c r="AE4" t="n">
-        <v>1491389.56409542</v>
+        <v>1617074.164538692</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.418185022197787e-06</v>
+        <v>2.085359499922641e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.37955729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1349053.437276552</v>
+        <v>1462742.875852963</v>
       </c>
     </row>
     <row r="5">
@@ -9344,28 +9344,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>979.9778841422421</v>
+        <v>1071.750859279764</v>
       </c>
       <c r="AB5" t="n">
-        <v>1340.848974656392</v>
+        <v>1466.416807977466</v>
       </c>
       <c r="AC5" t="n">
-        <v>1212.880230408541</v>
+        <v>1326.464045953013</v>
       </c>
       <c r="AD5" t="n">
-        <v>979977.8841422421</v>
+        <v>1071750.859279763</v>
       </c>
       <c r="AE5" t="n">
-        <v>1340848.974656392</v>
+        <v>1466416.807977466</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.490629949766914e-06</v>
+        <v>2.191885598818655e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.29231770833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1212880.230408541</v>
+        <v>1326464.045953013</v>
       </c>
     </row>
     <row r="6">
@@ -9450,28 +9450,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>899.1432199152891</v>
+        <v>991.0014463988311</v>
       </c>
       <c r="AB6" t="n">
-        <v>1230.247420887377</v>
+        <v>1355.931898861101</v>
       </c>
       <c r="AC6" t="n">
-        <v>1112.834333700985</v>
+        <v>1226.523661496169</v>
       </c>
       <c r="AD6" t="n">
-        <v>899143.2199152891</v>
+        <v>991001.4463988312</v>
       </c>
       <c r="AE6" t="n">
-        <v>1230247.420887377</v>
+        <v>1355931.898861101</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.536748995177677e-06</v>
+        <v>2.259701002288124e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.654296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1112834.333700985</v>
+        <v>1226523.661496169</v>
       </c>
     </row>
     <row r="7">
@@ -9556,28 +9556,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>885.014844728388</v>
+        <v>976.87307121193</v>
       </c>
       <c r="AB7" t="n">
-        <v>1210.916354656736</v>
+        <v>1336.60083263046</v>
       </c>
       <c r="AC7" t="n">
-        <v>1095.348197300075</v>
+        <v>1209.037525095259</v>
       </c>
       <c r="AD7" t="n">
-        <v>885014.844728388</v>
+        <v>976873.07121193</v>
       </c>
       <c r="AE7" t="n">
-        <v>1210916.354656736</v>
+        <v>1336600.83263046</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.545231779428706e-06</v>
+        <v>2.272174448592233e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.54036458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1095348.197300075</v>
+        <v>1209037.525095259</v>
       </c>
     </row>
   </sheetData>
@@ -9853,28 +9853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3342.272143090882</v>
+        <v>3522.323450265203</v>
       </c>
       <c r="AB2" t="n">
-        <v>4573.044196817616</v>
+        <v>4819.398338596598</v>
       </c>
       <c r="AC2" t="n">
-        <v>4136.599276981011</v>
+        <v>4359.441725228807</v>
       </c>
       <c r="AD2" t="n">
-        <v>3342272.143090882</v>
+        <v>3522323.450265203</v>
       </c>
       <c r="AE2" t="n">
-        <v>4573044.196817616</v>
+        <v>4819398.338596597</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.398176159030381e-07</v>
+        <v>1.07034778663529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.40950520833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4136599.276981011</v>
+        <v>4359441.725228807</v>
       </c>
     </row>
     <row r="3">
@@ -9959,28 +9959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1643.478860178828</v>
+        <v>1763.541452240865</v>
       </c>
       <c r="AB3" t="n">
-        <v>2248.680281666826</v>
+        <v>2412.955216913837</v>
       </c>
       <c r="AC3" t="n">
-        <v>2034.06939162714</v>
+        <v>2182.666157615497</v>
       </c>
       <c r="AD3" t="n">
-        <v>1643478.860178828</v>
+        <v>1763541.452240865</v>
       </c>
       <c r="AE3" t="n">
-        <v>2248680.281666826</v>
+        <v>2412955.216913837</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.141301135740509e-06</v>
+        <v>1.651203105015413e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.84244791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2034069.39162714</v>
+        <v>2182666.157615497</v>
       </c>
     </row>
     <row r="4">
@@ -10065,28 +10065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1330.867914181734</v>
+        <v>1433.851856681684</v>
       </c>
       <c r="AB4" t="n">
-        <v>1820.952193932013</v>
+        <v>1961.859367391336</v>
       </c>
       <c r="AC4" t="n">
-        <v>1647.163072265597</v>
+        <v>1774.622262854422</v>
       </c>
       <c r="AD4" t="n">
-        <v>1330867.914181734</v>
+        <v>1433851.856681684</v>
       </c>
       <c r="AE4" t="n">
-        <v>1820952.193932013</v>
+        <v>1961859.367391336</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.297057166057203e-06</v>
+        <v>1.876546647424955e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.61979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1647163.072265597</v>
+        <v>1774622.262854422</v>
       </c>
     </row>
     <row r="5">
@@ -10171,28 +10171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1196.512050757312</v>
+        <v>1290.828746702912</v>
       </c>
       <c r="AB5" t="n">
-        <v>1637.120574232358</v>
+        <v>1766.168838584087</v>
       </c>
       <c r="AC5" t="n">
-        <v>1480.876084340777</v>
+        <v>1597.608163463155</v>
       </c>
       <c r="AD5" t="n">
-        <v>1196512.050757312</v>
+        <v>1290828.746702912</v>
       </c>
       <c r="AE5" t="n">
-        <v>1637120.574232358</v>
+        <v>1766168.838584087</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.378087946783894e-06</v>
+        <v>1.993779753173967e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.22981770833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1480876.084340777</v>
+        <v>1597608.163463155</v>
       </c>
     </row>
     <row r="6">
@@ -10277,28 +10277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1108.016754775146</v>
+        <v>1202.248109866175</v>
       </c>
       <c r="AB6" t="n">
-        <v>1516.03740613264</v>
+        <v>1644.968903362172</v>
       </c>
       <c r="AC6" t="n">
-        <v>1371.348923863204</v>
+        <v>1487.975379953642</v>
       </c>
       <c r="AD6" t="n">
-        <v>1108016.754775146</v>
+        <v>1202248.109866175</v>
       </c>
       <c r="AE6" t="n">
-        <v>1516037.40613264</v>
+        <v>1644968.903362172</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.42984976954775e-06</v>
+        <v>2.068667335243603e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.42578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1371348.923863204</v>
+        <v>1487975.379953642</v>
       </c>
     </row>
     <row r="7">
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1036.127452014166</v>
+        <v>1130.444058451216</v>
       </c>
       <c r="AB7" t="n">
-        <v>1417.675290562865</v>
+        <v>1546.723432445047</v>
       </c>
       <c r="AC7" t="n">
-        <v>1282.374350551311</v>
+        <v>1399.106318892462</v>
       </c>
       <c r="AD7" t="n">
-        <v>1036127.452014166</v>
+        <v>1130444.058451216</v>
       </c>
       <c r="AE7" t="n">
-        <v>1417675.290562865</v>
+        <v>1546723.432445047</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.466741832317625e-06</v>
+        <v>2.122041757373235e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.888671875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1282374.350551311</v>
+        <v>1399106.318892462</v>
       </c>
     </row>
     <row r="8">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>986.9687334647647</v>
+        <v>1081.285339901814</v>
       </c>
       <c r="AB8" t="n">
-        <v>1350.414163113973</v>
+        <v>1479.462304996154</v>
       </c>
       <c r="AC8" t="n">
-        <v>1221.532530704556</v>
+        <v>1338.264499045707</v>
       </c>
       <c r="AD8" t="n">
-        <v>986968.7334647647</v>
+        <v>1081285.339901814</v>
       </c>
       <c r="AE8" t="n">
-        <v>1350414.163113973</v>
+        <v>1479462.304996154</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.492622743699553e-06</v>
+        <v>2.159485548408053e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.52408854166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1221532.530704556</v>
+        <v>1338264.499045707</v>
       </c>
     </row>
     <row r="9">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>963.9842293652287</v>
+        <v>1049.7189301025</v>
       </c>
       <c r="AB9" t="n">
-        <v>1318.965750600232</v>
+        <v>1436.271750497018</v>
       </c>
       <c r="AC9" t="n">
-        <v>1193.085510543002</v>
+        <v>1299.195990449644</v>
       </c>
       <c r="AD9" t="n">
-        <v>963984.2293652287</v>
+        <v>1049718.9301025</v>
       </c>
       <c r="AE9" t="n">
-        <v>1318965.750600232</v>
+        <v>1436271.750497018</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.502692771037249e-06</v>
+        <v>2.174054587101601e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.38736979166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1193085.510543002</v>
+        <v>1299195.990449644</v>
       </c>
     </row>
     <row r="10">
@@ -10701,28 +10701,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>966.0632640779767</v>
+        <v>1051.797964815248</v>
       </c>
       <c r="AB10" t="n">
-        <v>1321.810377614752</v>
+        <v>1439.116377511538</v>
       </c>
       <c r="AC10" t="n">
-        <v>1195.658650347716</v>
+        <v>1301.769130254358</v>
       </c>
       <c r="AD10" t="n">
-        <v>966063.2640779767</v>
+        <v>1051797.964815248</v>
       </c>
       <c r="AE10" t="n">
-        <v>1321810.377614752</v>
+        <v>1439116.377511538</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.502692771037249e-06</v>
+        <v>2.174054587101601e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.38736979166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1195658.650347716</v>
+        <v>1301769.130254358</v>
       </c>
     </row>
   </sheetData>
@@ -10998,28 +10998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1578.389940690555</v>
+        <v>1707.752206712594</v>
       </c>
       <c r="AB2" t="n">
-        <v>2159.622750502504</v>
+        <v>2336.621909934252</v>
       </c>
       <c r="AC2" t="n">
-        <v>1953.511386244112</v>
+        <v>2113.617994319574</v>
       </c>
       <c r="AD2" t="n">
-        <v>1578389.940690555</v>
+        <v>1707752.206712594</v>
       </c>
       <c r="AE2" t="n">
-        <v>2159622.750502504</v>
+        <v>2336621.909934252</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.113247682571636e-06</v>
+        <v>1.671746916527735e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.77213541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1953511.386244112</v>
+        <v>2113617.994319574</v>
       </c>
     </row>
     <row r="3">
@@ -11104,28 +11104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>998.7316086554845</v>
+        <v>1095.7959785993</v>
       </c>
       <c r="AB3" t="n">
-        <v>1366.508647891344</v>
+        <v>1499.316401026254</v>
       </c>
       <c r="AC3" t="n">
-        <v>1236.090980443527</v>
+        <v>1356.223748016092</v>
       </c>
       <c r="AD3" t="n">
-        <v>998731.6086554845</v>
+        <v>1095795.9785993</v>
       </c>
       <c r="AE3" t="n">
-        <v>1366508.647891344</v>
+        <v>1499316.401026254</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.444045352287681e-06</v>
+        <v>2.168500687498891e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.95247395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1236090.980443527</v>
+        <v>1356223.748016092</v>
       </c>
     </row>
     <row r="4">
@@ -11210,28 +11210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>846.724004757972</v>
+        <v>935.607314122568</v>
       </c>
       <c r="AB4" t="n">
-        <v>1158.525138136576</v>
+        <v>1280.139203264078</v>
       </c>
       <c r="AC4" t="n">
-        <v>1047.957124953065</v>
+        <v>1157.964514391209</v>
       </c>
       <c r="AD4" t="n">
-        <v>846724.004757972</v>
+        <v>935607.314122568</v>
       </c>
       <c r="AE4" t="n">
-        <v>1158525.138136576</v>
+        <v>1280139.203264078</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.563169166866867e-06</v>
+        <v>2.34738708701759e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.201171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1047957.124953064</v>
+        <v>1157964.514391209</v>
       </c>
     </row>
     <row r="5">
@@ -11316,28 +11316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>804.8555510548405</v>
+        <v>893.8241117654572</v>
       </c>
       <c r="AB5" t="n">
-        <v>1101.238872674137</v>
+        <v>1222.969582454287</v>
       </c>
       <c r="AC5" t="n">
-        <v>996.1381802645815</v>
+        <v>1106.251081953439</v>
       </c>
       <c r="AD5" t="n">
-        <v>804855.5510548404</v>
+        <v>893824.1117654572</v>
       </c>
       <c r="AE5" t="n">
-        <v>1101238.872674137</v>
+        <v>1222969.582454287</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.589335679983833e-06</v>
+        <v>2.386680937168278e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.85286458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>996138.1802645815</v>
+        <v>1106251.081953439</v>
       </c>
     </row>
   </sheetData>
@@ -11613,28 +11613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1137.660204698726</v>
+        <v>1239.731449249751</v>
       </c>
       <c r="AB2" t="n">
-        <v>1556.596882094794</v>
+        <v>1696.255261955006</v>
       </c>
       <c r="AC2" t="n">
-        <v>1408.037460365112</v>
+        <v>1534.367040463232</v>
       </c>
       <c r="AD2" t="n">
-        <v>1137660.204698726</v>
+        <v>1239731.449249751</v>
       </c>
       <c r="AE2" t="n">
-        <v>1556596.882094794</v>
+        <v>1696255.261955006</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.307797685872681e-06</v>
+        <v>2.00583044890227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.39973958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1408037.460365112</v>
+        <v>1534367.040463232</v>
       </c>
     </row>
     <row r="3">
@@ -11719,28 +11719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>769.8653987270472</v>
+        <v>856.305510639932</v>
       </c>
       <c r="AB3" t="n">
-        <v>1053.363802602675</v>
+        <v>1171.634977190481</v>
       </c>
       <c r="AC3" t="n">
-        <v>952.8322396876574</v>
+        <v>1059.815779367439</v>
       </c>
       <c r="AD3" t="n">
-        <v>769865.3987270473</v>
+        <v>856305.510639932</v>
       </c>
       <c r="AE3" t="n">
-        <v>1053363.802602675</v>
+        <v>1171634.977190481</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.597547363741804e-06</v>
+        <v>2.450233075323566e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.611328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>952832.2396876574</v>
+        <v>1059815.779367439</v>
       </c>
     </row>
     <row r="4">
@@ -11825,28 +11825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>749.9844290308669</v>
+        <v>836.2539487431595</v>
       </c>
       <c r="AB4" t="n">
-        <v>1026.16178277788</v>
+        <v>1144.199545590838</v>
       </c>
       <c r="AC4" t="n">
-        <v>928.2263424566661</v>
+        <v>1034.998746853796</v>
       </c>
       <c r="AD4" t="n">
-        <v>749984.4290308668</v>
+        <v>836253.9487431595</v>
       </c>
       <c r="AE4" t="n">
-        <v>1026161.78277788</v>
+        <v>1144199.545590838</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.618758906777611e-06</v>
+        <v>2.4827662104935e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>928226.3424566661</v>
+        <v>1034998.746853796</v>
       </c>
     </row>
   </sheetData>
@@ -21087,28 +21087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>866.4398557375764</v>
+        <v>958.3737254726528</v>
       </c>
       <c r="AB2" t="n">
-        <v>1185.501235248829</v>
+        <v>1311.289211656446</v>
       </c>
       <c r="AC2" t="n">
-        <v>1072.358661218114</v>
+        <v>1186.141609701922</v>
       </c>
       <c r="AD2" t="n">
-        <v>866439.8557375764</v>
+        <v>958373.7254726528</v>
       </c>
       <c r="AE2" t="n">
-        <v>1185501.235248829</v>
+        <v>1311289.211656446</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.474307482263648e-06</v>
+        <v>2.303576359782928e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.22526041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1072358.661218114</v>
+        <v>1186141.609701922</v>
       </c>
     </row>
     <row r="3">
@@ -21193,28 +21193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>702.7192754072062</v>
+        <v>794.5677147791597</v>
       </c>
       <c r="AB3" t="n">
-        <v>961.4915143985749</v>
+        <v>1087.162601214446</v>
       </c>
       <c r="AC3" t="n">
-        <v>869.72811372619</v>
+        <v>983.4053283968329</v>
       </c>
       <c r="AD3" t="n">
-        <v>702719.2754072062</v>
+        <v>794567.7147791598</v>
       </c>
       <c r="AE3" t="n">
-        <v>961491.5143985748</v>
+        <v>1087162.601214446</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.628562305902782e-06</v>
+        <v>2.544596478986291e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.93033854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>869728.1137261901</v>
+        <v>983405.3283968329</v>
       </c>
     </row>
   </sheetData>
@@ -21490,28 +21490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>650.5397207922103</v>
+        <v>745.2472100067797</v>
       </c>
       <c r="AB2" t="n">
-        <v>890.0971457748548</v>
+        <v>1019.68011071777</v>
       </c>
       <c r="AC2" t="n">
-        <v>805.1475234412922</v>
+        <v>922.3632720808895</v>
       </c>
       <c r="AD2" t="n">
-        <v>650539.7207922103</v>
+        <v>745247.2100067798</v>
       </c>
       <c r="AE2" t="n">
-        <v>890097.1457748548</v>
+        <v>1019680.11071777</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.562716708018479e-06</v>
+        <v>2.546722121847479e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.52799479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>805147.5234412921</v>
+        <v>922363.2720808894</v>
       </c>
     </row>
   </sheetData>
@@ -21787,28 +21787,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2112.584624433799</v>
+        <v>2253.636950300563</v>
       </c>
       <c r="AB2" t="n">
-        <v>2890.531483806182</v>
+        <v>3083.5254988467</v>
       </c>
       <c r="AC2" t="n">
-        <v>2614.663215878137</v>
+        <v>2789.238152991872</v>
       </c>
       <c r="AD2" t="n">
-        <v>2112584.6244338</v>
+        <v>2253636.950300563</v>
       </c>
       <c r="AE2" t="n">
-        <v>2890531.483806182</v>
+        <v>3083525.498846699</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.550263608759632e-07</v>
+        <v>1.41093761360606e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.564453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2614663.215878137</v>
+        <v>2789238.152991872</v>
       </c>
     </row>
     <row r="3">
@@ -21893,28 +21893,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1232.703193130444</v>
+        <v>1332.184289455078</v>
       </c>
       <c r="AB3" t="n">
-        <v>1686.638891867793</v>
+        <v>1822.753316655381</v>
       </c>
       <c r="AC3" t="n">
-        <v>1525.668443240483</v>
+        <v>1648.792298364139</v>
       </c>
       <c r="AD3" t="n">
-        <v>1232703.193130444</v>
+        <v>1332184.289455078</v>
       </c>
       <c r="AE3" t="n">
-        <v>1686638.891867793</v>
+        <v>1822753.316655381</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.318011220247875e-06</v>
+        <v>1.947204477263715e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.32291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1525668.443240483</v>
+        <v>1648792.298364138</v>
       </c>
     </row>
     <row r="4">
@@ -21999,28 +21999,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1032.642480722921</v>
+        <v>1123.826381408334</v>
       </c>
       <c r="AB4" t="n">
-        <v>1412.906999096101</v>
+        <v>1537.668834763669</v>
       </c>
       <c r="AC4" t="n">
-        <v>1278.061138129796</v>
+        <v>1390.915879305587</v>
       </c>
       <c r="AD4" t="n">
-        <v>1032642.480722921</v>
+        <v>1123826.381408334</v>
       </c>
       <c r="AE4" t="n">
-        <v>1412906.999096101</v>
+        <v>1537668.834763669</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.451644007596677e-06</v>
+        <v>2.144630992180545e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.08333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1278061.138129796</v>
+        <v>1390915.879305587</v>
       </c>
     </row>
     <row r="5">
@@ -22105,28 +22105,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>926.3306930107007</v>
+        <v>1009.302738911464</v>
       </c>
       <c r="AB5" t="n">
-        <v>1267.446521003181</v>
+        <v>1380.972534672927</v>
       </c>
       <c r="AC5" t="n">
-        <v>1146.483203911001</v>
+        <v>1249.174454170868</v>
       </c>
       <c r="AD5" t="n">
-        <v>926330.6930107006</v>
+        <v>1009302.738911464</v>
       </c>
       <c r="AE5" t="n">
-        <v>1267446.521003181</v>
+        <v>1380972.534672927</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.522350228168851e-06</v>
+        <v>2.249091005231602e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.05794270833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1146483.203911001</v>
+        <v>1249174.454170868</v>
       </c>
     </row>
     <row r="6">
@@ -22211,28 +22211,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>864.8539066049328</v>
+        <v>956.0377177817943</v>
       </c>
       <c r="AB6" t="n">
-        <v>1183.331269678408</v>
+        <v>1308.092982876428</v>
       </c>
       <c r="AC6" t="n">
-        <v>1070.395794116168</v>
+        <v>1183.250424510733</v>
       </c>
       <c r="AD6" t="n">
-        <v>864853.9066049329</v>
+        <v>956037.7177817943</v>
       </c>
       <c r="AE6" t="n">
-        <v>1183331.269678408</v>
+        <v>1308092.982876428</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.555044469436207e-06</v>
+        <v>2.297392849706464e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.615234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1070395.794116168</v>
+        <v>1183250.424510733</v>
       </c>
     </row>
     <row r="7">
@@ -22317,28 +22317,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>867.023469134458</v>
+        <v>958.2072803113196</v>
       </c>
       <c r="AB7" t="n">
-        <v>1186.299760845648</v>
+        <v>1311.061474043668</v>
       </c>
       <c r="AC7" t="n">
-        <v>1073.08097665271</v>
+        <v>1185.935607047275</v>
       </c>
       <c r="AD7" t="n">
-        <v>867023.469134458</v>
+        <v>958207.2803113195</v>
       </c>
       <c r="AE7" t="n">
-        <v>1186299.760845648</v>
+        <v>1311061.474043668</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.556718572151704e-06</v>
+        <v>2.29986613692355e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.59244791666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1073080.97665271</v>
+        <v>1185935.607047275</v>
       </c>
     </row>
   </sheetData>
@@ -22614,28 +22614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3046.405947711695</v>
+        <v>3225.343905657392</v>
       </c>
       <c r="AB2" t="n">
-        <v>4168.227015604461</v>
+        <v>4413.057823851339</v>
       </c>
       <c r="AC2" t="n">
-        <v>3770.417279378373</v>
+        <v>3991.881778908356</v>
       </c>
       <c r="AD2" t="n">
-        <v>3046405.947711695</v>
+        <v>3225343.905657392</v>
       </c>
       <c r="AE2" t="n">
-        <v>4168227.015604461</v>
+        <v>4413057.823851339</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.794692933114512e-07</v>
+        <v>1.131921156380978e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.63216145833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3770417.279378373</v>
+        <v>3991881.778908356</v>
       </c>
     </row>
     <row r="3">
@@ -22720,28 +22720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1560.132469475024</v>
+        <v>1670.92399505819</v>
       </c>
       <c r="AB3" t="n">
-        <v>2134.642072922632</v>
+        <v>2286.231926002667</v>
       </c>
       <c r="AC3" t="n">
-        <v>1930.914829471861</v>
+        <v>2068.037159731632</v>
       </c>
       <c r="AD3" t="n">
-        <v>1560132.469475024</v>
+        <v>1670923.99505819</v>
       </c>
       <c r="AE3" t="n">
-        <v>2134642.072922632</v>
+        <v>2286231.926002666</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.174043595915422e-06</v>
+        <v>1.704909732985812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.31184895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1930914.829471861</v>
+        <v>2068037.159731632</v>
       </c>
     </row>
     <row r="4">
@@ -22826,28 +22826,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1273.084493890036</v>
+        <v>1375.261695777923</v>
       </c>
       <c r="AB4" t="n">
-        <v>1741.890369064325</v>
+        <v>1881.69372442734</v>
       </c>
       <c r="AC4" t="n">
-        <v>1575.646796999313</v>
+        <v>1702.107516341723</v>
       </c>
       <c r="AD4" t="n">
-        <v>1273084.493890036</v>
+        <v>1375261.695777924</v>
       </c>
       <c r="AE4" t="n">
-        <v>1741890.369064325</v>
+        <v>1881693.72442734</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.32502188245773e-06</v>
+        <v>1.92415572273528e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.31380208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1575646.796999312</v>
+        <v>1702107.516341723</v>
       </c>
     </row>
     <row r="5">
@@ -22932,28 +22932,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1136.69844737626</v>
+        <v>1238.875559755597</v>
       </c>
       <c r="AB5" t="n">
-        <v>1555.280963296458</v>
+        <v>1695.084196189924</v>
       </c>
       <c r="AC5" t="n">
-        <v>1406.847131009985</v>
+        <v>1533.307739571168</v>
       </c>
       <c r="AD5" t="n">
-        <v>1136698.44737626</v>
+        <v>1238875.559755597</v>
       </c>
       <c r="AE5" t="n">
-        <v>1555280.963296458</v>
+        <v>1695084.196189924</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.404544072352421e-06</v>
+        <v>2.039635382955302e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.9921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1406847.131009985</v>
+        <v>1533307.739571169</v>
       </c>
     </row>
     <row r="6">
@@ -23038,28 +23038,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1058.060461950111</v>
+        <v>1151.708680997292</v>
       </c>
       <c r="AB6" t="n">
-        <v>1447.685002373332</v>
+        <v>1575.818627141525</v>
       </c>
       <c r="AC6" t="n">
-        <v>1309.519977585483</v>
+        <v>1425.424709042471</v>
       </c>
       <c r="AD6" t="n">
-        <v>1058060.461950111</v>
+        <v>1151708.680997292</v>
       </c>
       <c r="AE6" t="n">
-        <v>1447685.002373332</v>
+        <v>1575818.627141525</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.455218116986986e-06</v>
+        <v>2.113222660470209e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.22721354166666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1309519.977585483</v>
+        <v>1425424.709042471</v>
       </c>
     </row>
     <row r="7">
@@ -23144,28 +23144,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>989.6642367240619</v>
+        <v>1083.397707117263</v>
       </c>
       <c r="AB7" t="n">
-        <v>1354.102269590554</v>
+        <v>1482.352539011396</v>
       </c>
       <c r="AC7" t="n">
-        <v>1224.868649475303</v>
+        <v>1340.878893183003</v>
       </c>
       <c r="AD7" t="n">
-        <v>989664.2367240619</v>
+        <v>1083397.707117263</v>
       </c>
       <c r="AE7" t="n">
-        <v>1354102.269590554</v>
+        <v>1482352.539011396</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.490519136844773e-06</v>
+        <v>2.164485707727784e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.72591145833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1224868.649475303</v>
+        <v>1340878.893183003</v>
       </c>
     </row>
     <row r="8">
@@ -23250,28 +23250,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>947.0641536651361</v>
+        <v>1032.268730726182</v>
       </c>
       <c r="AB8" t="n">
-        <v>1295.814956566308</v>
+        <v>1412.395617861876</v>
       </c>
       <c r="AC8" t="n">
-        <v>1172.144195799332</v>
+        <v>1277.598562402838</v>
       </c>
       <c r="AD8" t="n">
-        <v>947064.1536651361</v>
+        <v>1032268.730726182</v>
       </c>
       <c r="AE8" t="n">
-        <v>1295814.956566308</v>
+        <v>1412395.617861876</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.511111398428482e-06</v>
+        <v>2.19438915196137e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.44270833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1172144.195799333</v>
+        <v>1277598.562402838</v>
       </c>
     </row>
     <row r="9">
@@ -23356,28 +23356,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>946.9428412219137</v>
+        <v>1032.14741828296</v>
       </c>
       <c r="AB9" t="n">
-        <v>1295.648971529563</v>
+        <v>1412.229632825133</v>
       </c>
       <c r="AC9" t="n">
-        <v>1171.994052141534</v>
+        <v>1277.44841874504</v>
       </c>
       <c r="AD9" t="n">
-        <v>946942.8412219137</v>
+        <v>1032147.41828296</v>
       </c>
       <c r="AE9" t="n">
-        <v>1295648.971529563</v>
+        <v>1412229.632825132</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.512060350575196e-06</v>
+        <v>2.195767190866143e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.4296875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1171994.052141534</v>
+        <v>1277448.418745039</v>
       </c>
     </row>
   </sheetData>
@@ -23653,28 +23653,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>648.0580501535857</v>
+        <v>747.5067535366488</v>
       </c>
       <c r="AB2" t="n">
-        <v>886.7016145235069</v>
+        <v>1022.771717859363</v>
       </c>
       <c r="AC2" t="n">
-        <v>802.0760569269149</v>
+        <v>925.1598205759858</v>
       </c>
       <c r="AD2" t="n">
-        <v>648058.0501535856</v>
+        <v>747506.7535366488</v>
       </c>
       <c r="AE2" t="n">
-        <v>886701.614523507</v>
+        <v>1022771.717859363</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.448585325738654e-06</v>
+        <v>2.414705432680665e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.40234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>802076.056926915</v>
+        <v>925159.8205759858</v>
       </c>
     </row>
   </sheetData>
@@ -23950,28 +23950,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1277.106339494679</v>
+        <v>1388.131320955509</v>
       </c>
       <c r="AB2" t="n">
-        <v>1747.393235651903</v>
+        <v>1899.302513363104</v>
       </c>
       <c r="AC2" t="n">
-        <v>1580.624477723094</v>
+        <v>1718.035747175548</v>
       </c>
       <c r="AD2" t="n">
-        <v>1277106.339494679</v>
+        <v>1388131.320955509</v>
       </c>
       <c r="AE2" t="n">
-        <v>1747393.235651903</v>
+        <v>1899302.513363104</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.237838192487657e-06</v>
+        <v>1.883874141767162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.48372395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1580624.477723094</v>
+        <v>1718035.747175548</v>
       </c>
     </row>
     <row r="3">
@@ -24056,28 +24056,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>851.6106796315025</v>
+        <v>938.8933790194565</v>
       </c>
       <c r="AB3" t="n">
-        <v>1165.211302283421</v>
+        <v>1284.635342226952</v>
       </c>
       <c r="AC3" t="n">
-        <v>1054.005170977824</v>
+        <v>1162.031548161838</v>
       </c>
       <c r="AD3" t="n">
-        <v>851610.6796315025</v>
+        <v>938893.3790194564</v>
       </c>
       <c r="AE3" t="n">
-        <v>1165211.302283421</v>
+        <v>1284635.342226952</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.543848850002337e-06</v>
+        <v>2.349593787756208e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.03776041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1054005.170977825</v>
+        <v>1162031.548161838</v>
       </c>
     </row>
     <row r="4">
@@ -24162,28 +24162,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>769.5710052522704</v>
+        <v>856.7683637856529</v>
       </c>
       <c r="AB4" t="n">
-        <v>1052.961000462762</v>
+        <v>1172.268273284095</v>
       </c>
       <c r="AC4" t="n">
-        <v>952.4678804186412</v>
+        <v>1060.388634570716</v>
       </c>
       <c r="AD4" t="n">
-        <v>769571.0052522704</v>
+        <v>856768.3637856529</v>
       </c>
       <c r="AE4" t="n">
-        <v>1052961.000462762</v>
+        <v>1172268.273284095</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.610213866232467e-06</v>
+        <v>2.450595145407521e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.12955729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>952467.8804186413</v>
+        <v>1060388.634570715</v>
       </c>
     </row>
   </sheetData>
@@ -24459,28 +24459,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1741.333579442531</v>
+        <v>1871.907777036458</v>
       </c>
       <c r="AB2" t="n">
-        <v>2382.569425608956</v>
+        <v>2561.226803284007</v>
       </c>
       <c r="AC2" t="n">
-        <v>2155.180343586027</v>
+        <v>2316.786911882977</v>
       </c>
       <c r="AD2" t="n">
-        <v>1741333.579442531</v>
+        <v>1871907.777036458</v>
       </c>
       <c r="AE2" t="n">
-        <v>2382569.425608956</v>
+        <v>2561226.803284008</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.05754244457547e-06</v>
+        <v>1.578816424888202e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.97330729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2155180.343586028</v>
+        <v>2316786.911882977</v>
       </c>
     </row>
     <row r="3">
@@ -24565,28 +24565,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1080.349234285254</v>
+        <v>1178.173295921036</v>
       </c>
       <c r="AB3" t="n">
-        <v>1478.181483993512</v>
+        <v>1612.028680816602</v>
       </c>
       <c r="AC3" t="n">
-        <v>1337.105917801914</v>
+        <v>1458.178926015928</v>
       </c>
       <c r="AD3" t="n">
-        <v>1080349.234285254</v>
+        <v>1178173.295921037</v>
       </c>
       <c r="AE3" t="n">
-        <v>1478181.483993512</v>
+        <v>1612028.680816602</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.39885395475625e-06</v>
+        <v>2.088364028429666e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.41471354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1337105.917801914</v>
+        <v>1458178.926015928</v>
       </c>
     </row>
     <row r="4">
@@ -24671,28 +24671,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>906.8191900663738</v>
+        <v>996.4770305491247</v>
       </c>
       <c r="AB4" t="n">
-        <v>1240.750021887994</v>
+        <v>1363.423834661256</v>
       </c>
       <c r="AC4" t="n">
-        <v>1122.334581202596</v>
+        <v>1233.300577458556</v>
       </c>
       <c r="AD4" t="n">
-        <v>906819.1900663738</v>
+        <v>996477.0305491247</v>
       </c>
       <c r="AE4" t="n">
-        <v>1240750.021887994</v>
+        <v>1363423.834661256</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.523927718657991e-06</v>
+        <v>2.275087988100078e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.494140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1122334.581202596</v>
+        <v>1233300.577458556</v>
       </c>
     </row>
     <row r="5">
@@ -24777,28 +24777,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>825.7011205769024</v>
+        <v>915.4442124056739</v>
       </c>
       <c r="AB5" t="n">
-        <v>1129.760700535844</v>
+        <v>1252.551157961755</v>
       </c>
       <c r="AC5" t="n">
-        <v>1021.937924905804</v>
+        <v>1133.009433412476</v>
       </c>
       <c r="AD5" t="n">
-        <v>825701.1205769024</v>
+        <v>915444.2124056738</v>
       </c>
       <c r="AE5" t="n">
-        <v>1129760.700535844</v>
+        <v>1252551.157961755</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.577157019626633e-06</v>
+        <v>2.354554580751444e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.76822916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1021937.924905804</v>
+        <v>1133009.433412476</v>
       </c>
     </row>
     <row r="6">
@@ -24883,28 +24883,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>825.5444351394246</v>
+        <v>915.2875269681962</v>
       </c>
       <c r="AB6" t="n">
-        <v>1129.546316607814</v>
+        <v>1252.336774033725</v>
       </c>
       <c r="AC6" t="n">
-        <v>1021.744001478975</v>
+        <v>1132.815509985647</v>
       </c>
       <c r="AD6" t="n">
-        <v>825544.4351394246</v>
+        <v>915287.5269681962</v>
       </c>
       <c r="AE6" t="n">
-        <v>1129546.316607814</v>
+        <v>1252336.774033725</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.579370714562947e-06</v>
+        <v>2.357859429595169e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.73893229166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1021744.001478975</v>
+        <v>1132815.509985647</v>
       </c>
     </row>
   </sheetData>
